--- a/1.Definition_of_requirement/Definition_of_requirement.xlsx
+++ b/1.Definition_of_requirement/Definition_of_requirement.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wlsgu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wlsgu\Desktop\DB설계~1\13CE8~1.요\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12288"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12288" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항정의_양식" sheetId="7" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">요구사항정의_양식!$A$1:$E$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">요구사항정의_양식!$A$1:$E$26</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">요구사항정의_양식!$3:$3</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>URQ007</t>
   </si>
@@ -92,14 +92,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 우리 회사는 직원 정보를 관리할 수 있다.
-2. 직원 정보는 직원 번호를 갖고있다.
-3. 직원 정보는 직원 명을 갖고있다.
-4. 직원 정보는 주민등록번호를 갖고있다.
-5. 직원 정보는 최종학력을 갖고있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 우리 회사 개발자들은 프로젝트에 투입될 수 있다.
 2. 프로젝트 초기부터 종료 시에 투입되거나 프로젝트 중간에 투입될 수 있다.
 3. 우리 회사 개발자들은 경력과 기술 등급을 갖고있다.
@@ -109,10 +101,6 @@
   </si>
   <si>
     <t>URQ005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입 페이지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -140,23 +128,6 @@
   </si>
   <si>
     <t>직원 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 경영진은 현재 프로젝트를 관리할 수 있다.
-2. 경영진은 현재 진행 중인 프로젝트 개수를 알 수 있다.
-3. 경영진은 현재 진행 중인 프로젝트의 투입 인원을 알 수 있다.
-4. 경영진은 현재 진행 중인 프로젝트에 투입된 각 직원의 직무를 알 수 있다.
-5. 경영진은 현재 진행 중인 프로젝트에 투입된 직원들의 투입기간을 알 수 있다.
-6. 경영진은 특정 시점에 진행됐던 프로젝트 정보를 알 수 있다.
-7. 경영진은 특정 시점에 진행됐던 프로젝트 개수를 알 수 있다.
-8. 경영진은 특정 시점에 진행됐던 프로젝트의 투입 인원을 알 수 있다.
-9. 경영진은 특정 시점에 진행됐던 프로젝트에 투입된 각 직원의 직무를 알 수 있다.
-10. 경영진은 특정 시점에 진행됐던 프로젝트에 투입된 직원들의 투입기간을 알 수 있다.
-11. 경영진은 직원들의 개인별 경력을 관리할 수 있다.
-12. 개인별 경력은 같은 프로젝트 참여자 그리고 경영진만 볼 수 있다. 
-13. 경영진은 인센티브 지급을 위한 기초자료를 알 수 있다.
-14. 경영진은 타 직원들의 정보 검색을 할 수 있다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -183,11 +154,102 @@
 17. 평가 결과는 회사 내부에서 인사고과와 인사평가의 근거 자료로 활용한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>웹 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 경영진은 현재 프로젝트를 관리할 수 있다.
+2. 경영진은 현재 진행 중인 프로젝트 개수를 알 수 있다.
+3. 경영진은 현재 진행 중인 프로젝트의 투입 인원을 알 수 있다.
+4. 경영진은 현재 진행 중인 프로젝트에 투입된 각 직원의 직무를 알 수 있다.
+5. 경영진은 현재 진행 중인 프로젝트에 투입된 직원들의 투입기간을 알 수 있다.
+6. 경영진은 특정 시점에 진행됐던 프로젝트 정보를 알 수 있다.
+7. 경영진은 특정 시점에 진행됐던 프로젝트 개수를 알 수 있다.
+8. 경영진은 특정 시점에 진행됐던 프로젝트의 투입 인원을 알 수 있다.
+9. 경영진은 특정 시점에 진행됐던 프로젝트에 투입된 각 직원의 직무를 알 수 있다.
+10. 경영진은 특정 시점에 진행됐던 프로젝트에 투입된 직원들의 투입기간을 알 수 있다.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 경영진은 직원들의 개인별 경력을 관리할 수 있다. 
+2. 경영진은 직원 인센티브 지급을 위한 기초자료를 알 수 있다.
+3. 경영진은 타 직원들의 정보 검색을 할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 우리 회사는 직원 정보를 관리할 수 있다.
+2. 직원 정보는 직원 번호를 갖고있다.
+3. 직원 정보는 직원 명을 갖고있다.
+4. 직원 정보는 주민등록번호를 갖고있다.
+5. 직원 정보는 최종학력을 갖고있다.
+6. 직원이 개발자인 경우 경력을 갖고있을 수 있다.
+7. 직원이 개발자인 경우 기술 등급을 갖고있다.
+8. 직원이 개발자이고 프로젝트에 투입됐을 경우 직무를 갖고있다.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 내 직원 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 직원은 같은 프로젝트 내의 직원 정보를 볼 수 있다.
+2. 같은 프로젝트 내의 직원이 아닐 경우 다른 직원의 정보를 볼 수 없다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 메인화면에는 로그인 기능과 회원가입 기능이 있다.
+2. 직원들은 로그인 후 회원정보 변경할 수 있다.
+3. ID를 찾는 기능이 있다.
+4. 비밀번호를 찾는 기능이 있다.
+5. 경영진에게는 직원 정보 및 프로젝트 정보를 열람할 수 있는 기능이 있다.
+6. 직원들은 로그인 후 프로젝트 평점을 확인 및 평가할 수 있는 기능이 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 정보 수정기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평점 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 직원은 자신의 아이디와 비밀번호를 입력하여 로그인 할 수 있다.
+2. 아이디 or 비밀번호가 일치하지 않으면 경고창이 뜬다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 각 프로젝트에는 평가점수가 존재한다.
+2. 각 직원이 참여한 프로젝트들의 전체 평점이 존재한다.
+3. 경영진은 직원들의 평점을 볼 수 있다.
+4. 직원은 자신의 평점을 볼 수 있다.
+5. 평점은 그래프로 표현될 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기초자료 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -534,7 +596,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -623,10 +685,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -966,11 +1034,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C6" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B7" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -984,13 +1052,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27"/>
@@ -1020,7 +1088,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="12"/>
@@ -1030,7 +1098,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>16</v>
@@ -1038,148 +1106,214 @@
       <c r="D5" s="11"/>
       <c r="E5" s="14"/>
     </row>
-    <row r="6" spans="1:5" s="5" customFormat="1" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="5" customFormat="1" ht="97.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="14"/>
     </row>
-    <row r="7" spans="1:5" s="5" customFormat="1" ht="205.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>9</v>
-      </c>
+    <row r="7" spans="1:5" s="5" customFormat="1" ht="97.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
       <c r="B7" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>21</v>
+        <v>30</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="14"/>
     </row>
-    <row r="8" spans="1:5" s="4" customFormat="1" ht="174.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>19</v>
-      </c>
+    <row r="8" spans="1:5" s="5" customFormat="1" ht="97.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
       <c r="B8" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>24</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C8" s="34"/>
       <c r="D8" s="11"/>
       <c r="E8" s="14"/>
     </row>
-    <row r="9" spans="1:5" ht="219" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="5" customFormat="1" ht="177" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>19</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="14"/>
     </row>
-    <row r="10" spans="1:5" ht="154.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="13"/>
+    <row r="10" spans="1:5" s="5" customFormat="1" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>36</v>
+      </c>
       <c r="D10" s="11"/>
       <c r="E10" s="14"/>
     </row>
-    <row r="11" spans="1:5" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="13"/>
+    <row r="11" spans="1:5" s="5" customFormat="1" ht="117.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="35"/>
       <c r="D11" s="11"/>
       <c r="E11" s="14"/>
     </row>
-    <row r="12" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" s="4" customFormat="1" ht="142.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="15"/>
+        <v>18</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>26</v>
+      </c>
       <c r="D12" s="11"/>
       <c r="E12" s="14"/>
     </row>
-    <row r="13" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" s="4" customFormat="1" ht="110.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="15"/>
+      <c r="B13" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>28</v>
+      </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="16"/>
-    </row>
-    <row r="14" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="15"/>
+      <c r="E13" s="14"/>
+    </row>
+    <row r="14" spans="1:5" s="4" customFormat="1" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>37</v>
+      </c>
       <c r="D14" s="11"/>
-      <c r="E14" s="16"/>
-    </row>
-    <row r="15" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="15"/>
+      <c r="E14" s="14"/>
+    </row>
+    <row r="15" spans="1:5" ht="219" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="D15" s="11"/>
-      <c r="E15" s="16"/>
-    </row>
-    <row r="16" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="15"/>
+      <c r="E15" s="14"/>
+    </row>
+    <row r="16" spans="1:5" ht="154.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>32</v>
+      </c>
       <c r="D16" s="11"/>
-      <c r="E16" s="16"/>
-    </row>
-    <row r="17" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="15"/>
+      <c r="E16" s="14"/>
+    </row>
+    <row r="17" spans="1:5" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="13"/>
       <c r="D17" s="11"/>
-      <c r="E17" s="16"/>
-    </row>
-    <row r="18" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="15"/>
+      <c r="E17" s="14"/>
+    </row>
+    <row r="18" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="13"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="16"/>
+      <c r="E18" s="14"/>
     </row>
     <row r="19" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="17"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="11"/>
-      <c r="E19" s="18"/>
-    </row>
-    <row r="20" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="30"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="21"/>
+      <c r="E19" s="16"/>
+    </row>
+    <row r="20" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="28"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="16"/>
+    </row>
+    <row r="21" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="28"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="16"/>
+    </row>
+    <row r="22" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="28"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="16"/>
+    </row>
+    <row r="23" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="28"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="16"/>
+    </row>
+    <row r="24" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="28"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="16"/>
+    </row>
+    <row r="25" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="29"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="18"/>
+    </row>
+    <row r="26" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="30"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D20">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D26" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"정책,기술,기능,시스템,컨텐츠,디자인,공통"</formula1>
     </dataValidation>
   </dataValidations>

--- a/1.Definition_of_requirement/Definition_of_requirement.xlsx
+++ b/1.Definition_of_requirement/Definition_of_requirement.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wlsgu\Desktop\DB설계~1\13CE8~1.요\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\june9\Documents\카카오톡 받은 파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12288" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12288"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항정의_양식" sheetId="7" r:id="rId1"/>
@@ -18,12 +18,170 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">요구사항정의_양식!$A$1:$E$26</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">요구사항정의_양식!$3:$3</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>june9</author>
+  </authors>
+  <commentList>
+    <comment ref="D3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>june9:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>정책</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기술</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기능</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시스템</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>컨텐츠</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>디자인</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>공통</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="65">
   <si>
     <t>URQ007</t>
   </si>
@@ -64,14 +222,6 @@
     <t>URQ006</t>
   </si>
   <si>
-    <t>URQ008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>URQ009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>요구사항 정의서</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -84,27 +234,177 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 우리 회사는 프로젝트를 관리할 수 있다.
+    <t>프로젝트 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평가 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 내 직원 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 정보 수정기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평점 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기초자료 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. 우리 회사 개발자들은 프로젝트에 투입될 수 있다.
+2. 시스템은 프로젝트에 투입한 인력을 관리할 수 있다. 
+3. 개발자들은 프로젝트 초기부터 종료 시에 투입되거나 프로젝트 중간에 투입될 수 있다.
+4. 우리 회사 개발자들은 경력과 기술 등급을 갖고있다.
+5. 개발자들은 경력과 기술 등급에 따라 PM, PL, 분석자, 설계자, 프로그래머, 테스터 등으로 나눌 수 있다.
+6. 프로젝트 투입 직원에 대해서 경력, Skill set을 관리할 수 있다.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. 사내 업무용 웹 기반 시스템은 80명 이상의 직원을 관리할 수 있어야 한다.
+2. 시스템은 직원들의 직급과 부서를 구분할 수 있어야 한다.
+3. 회사 부서에는 마케팅, 경영관리, 연구개발, 개발팀 이 있다. 
+4. 마케팅부서 및 경영진들은 프로젝트를 등록할 수 있다. 
+5. 경영진들은 마케팅부서 및 경영진들이 등록한 프로젝트를 승인하고 PM을 배정할 수 있다. 
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. 우리 회사는 프로젝트를 관리할 수 있다.
 2. 프로젝트는 프로젝트 번호를 갖고있다.
 3. 프로젝트는 프로젝트 이름을 갖고있다.
 4. 프로젝트는 착수일자/종료일자를 갖고있다.
-5. 프로젝트는 발주처를 갖고있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 우리 회사 개발자들은 프로젝트에 투입될 수 있다.
-2. 프로젝트 초기부터 종료 시에 투입되거나 프로젝트 중간에 투입될 수 있다.
-3. 우리 회사 개발자들은 경력과 기술 등급을 갖고있다.
-4. 경력과 기술 등급에 따라 PM, PL, 분석자, 설계자, 프로그래머, 테스터 등으로 나눌 수 있다.
-5. 프로젝트 투입 직원에 대해서 경력, Skill set을 관리할 수 있다.</t>
+5. 프로젝트는 발주처를 갖고있다.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원, 부서, 직급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트, 직무, Skill set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트, 발주처</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트, 직무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원, 평가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평가, 고객사, 프로젝트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>URQ005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 직원은 회원가입을 할 수 있다.
+  </si>
+  <si>
+    <t>URQ008</t>
+  </si>
+  <si>
+    <t>URQ009</t>
+  </si>
+  <si>
+    <t>URQ010</t>
+  </si>
+  <si>
+    <t>URQ011</t>
+  </si>
+  <si>
+    <t>URQ012</t>
+  </si>
+  <si>
+    <t>URQ013</t>
+  </si>
+  <si>
+    <t>URQ014</t>
+  </si>
+  <si>
+    <t>사내 업무용 
+웹기반 시스템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. 우리 회사는 직원 정보를 관리할 수 있다.
+2. 직원 정보는 직원 번호를 갖고있다.
+3. 직원 정보는 직원 명을 갖고있다.
+4. 직원 정보는 주민등록번호를 갖고있다.
+5. 직원 정보는 최종학력을 갖고있다.
+6. 직원이 개발자인 경우 경력을 갖고있을 수 있다.
+7. 직원이 개발자인 경우 기술 등급을 갖고있다.
+8. 직원이 개발자이고 프로젝트에 투입됐을 경우 직무를 갖고있다.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. 직원은 회원가입을 할 수 있다.
 2. 회원가입은 이메일, 페이스북 등을 연동하여 할 수 있다.
 3. 중복 가입을 위하여 별도의 회원가입 페이지가 존재한다. 
 4. 중복 방지는 ID와 주민등록번호를 통하여 한다.
@@ -119,23 +419,46 @@
 13. 직원은 자신의 사진을 등록할 수 있다.
 14. 직원은 자신의 이전 경력을 입력할 수 있다.
 15. 직원은 자신의 포트폴리오를 첨부할 수 있다.
-16. 직군을 개발자로 선택할 경우 자신의 Skill Set을 입력할 수 있어야한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>직원 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>평가 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 평가는 프로젝트 종료시점에 실시한다.
+16. 직군을 개발자로 선택할 경우 자신의 Skill Set을 입력할 수 있어야한다.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. 경영진은 현재 프로젝트를 관리할 수 있다.
+2. 경영진은 현재 진행 중인 프로젝트 개수를 알 수 있다.
+3. 경영진은 현재 진행 중인 프로젝트의 투입 인원을 알 수 있다.
+4. 경영진은 현재 진행 중인 프로젝트에 투입된 각 직원의 직무를 알 수 있다.
+5. 경영진은 현재 진행 중인 프로젝트에 투입된 직원들의 투입기간을 알 수 있다.
+6. 경영진은 특정 시점에 진행됐던 프로젝트 정보를 알 수 있다.
+7. 경영진은 특정 시점에 진행됐던 프로젝트 개수를 알 수 있다.
+8. 경영진은 특정 시점에 진행됐던 프로젝트의 투입 인원을 알 수 있다.
+9. 경영진은 특정 시점에 진행됐던 프로젝트에 투입된 각 직원의 직무를 알 수 있다.
+10. 경영진은 특정 시점에 진행됐던 프로젝트에 투입된 직원들의 투입기간을 알 수 있다.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. 경영진은 직원들의 개인별 경력을 관리할 수 있다. 
+2. 경영진은 직원 인센티브 지급을 위한 기초자료를 알 수 있다.
+3. 경영진은 타 직원들의 정보 검색을 할 수 있다.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. 각 프로젝트에는 평가점수가 존재한다.
+2. 각 직원이 참여한 프로젝트들의 전체 평점이 존재한다.
+3. 경영진은 직원들의 평점을 볼 수 있다.
+4. 직원은 자신의 평점을 볼 수 있다.
+5. 평점은 그래프로 표현될 수 있다.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. 평가는 프로젝트 종료시점에 실시한다.
 2. 각 평가에는 평가자와 피 평가자가 존재한다.
 3. 평가에는 업무수행 평가와 커뮤니케이션 능력평가가 있다.
 4. 평가에는 1~5점 사이의 평점이 존재한다.
@@ -151,106 +474,87 @@
 14. 평가에는 동료 평가가 있다.
 15. 개발자는 평가 페이지에서 자신이 참여한 프로젝트 목록을 볼 수 있다.
 16. 개발자는 프로젝트를 선택하여 각 프로젝트에 대한 동료 평가를 할 수 있다.
-17. 평가 결과는 회사 내부에서 인사고과와 인사평가의 근거 자료로 활용한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>웹 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>직원 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 경영진은 현재 프로젝트를 관리할 수 있다.
-2. 경영진은 현재 진행 중인 프로젝트 개수를 알 수 있다.
-3. 경영진은 현재 진행 중인 프로젝트의 투입 인원을 알 수 있다.
-4. 경영진은 현재 진행 중인 프로젝트에 투입된 각 직원의 직무를 알 수 있다.
-5. 경영진은 현재 진행 중인 프로젝트에 투입된 직원들의 투입기간을 알 수 있다.
-6. 경영진은 특정 시점에 진행됐던 프로젝트 정보를 알 수 있다.
-7. 경영진은 특정 시점에 진행됐던 프로젝트 개수를 알 수 있다.
-8. 경영진은 특정 시점에 진행됐던 프로젝트의 투입 인원을 알 수 있다.
-9. 경영진은 특정 시점에 진행됐던 프로젝트에 투입된 각 직원의 직무를 알 수 있다.
-10. 경영진은 특정 시점에 진행됐던 프로젝트에 투입된 직원들의 투입기간을 알 수 있다.
+17. 평가 결과는 회사 내부에서 인사고과와 인사평가의 근거 자료로 활용한다.
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회원가입 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 경영진은 직원들의 개인별 경력을 관리할 수 있다. 
-2. 경영진은 직원 인센티브 지급을 위한 기초자료를 알 수 있다.
-3. 경영진은 타 직원들의 정보 검색을 할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 우리 회사는 직원 정보를 관리할 수 있다.
-2. 직원 정보는 직원 번호를 갖고있다.
-3. 직원 정보는 직원 명을 갖고있다.
-4. 직원 정보는 주민등록번호를 갖고있다.
-5. 직원 정보는 최종학력을 갖고있다.
-6. 직원이 개발자인 경우 경력을 갖고있을 수 있다.
-7. 직원이 개발자인 경우 기술 등급을 갖고있다.
-8. 직원이 개발자이고 프로젝트에 투입됐을 경우 직무를 갖고있다.
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트 내 직원 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 직원은 같은 프로젝트 내의 직원 정보를 볼 수 있다.
-2. 같은 프로젝트 내의 직원이 아닐 경우 다른 직원의 정보를 볼 수 없다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 메인화면에는 로그인 기능과 회원가입 기능이 있다.
+    <t xml:space="preserve">
+1. 메인화면에는 로그인 기능과 회원가입 기능이 있다.
 2. 직원들은 로그인 후 회원정보 변경할 수 있다.
 3. ID를 찾는 기능이 있다.
 4. 비밀번호를 찾는 기능이 있다.
 5. 경영진에게는 직원 정보 및 프로젝트 정보를 열람할 수 있는 기능이 있다.
-6. 직원들은 로그인 후 프로젝트 평점을 확인 및 평가할 수 있는 기능이 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 정보 수정기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>평점 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 직원은 자신의 아이디와 비밀번호를 입력하여 로그인 할 수 있다.
-2. 아이디 or 비밀번호가 일치하지 않으면 경고창이 뜬다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 각 프로젝트에는 평가점수가 존재한다.
-2. 각 직원이 참여한 프로젝트들의 전체 평점이 존재한다.
-3. 경영진은 직원들의 평점을 볼 수 있다.
-4. 직원은 자신의 평점을 볼 수 있다.
-5. 평점은 그래프로 표현될 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기초자료 정보</t>
+6. 직원들은 로그인 후 프로젝트 평점을 확인 및 평가할 수 있는 기능이 있다.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. 기초자료는 인센티브 지급과 인사평가의 근거 자료로 활용된다.
+2. 평가자료는 인사평가 대상 직원이 우리 회사에서 진행한 프로젝트, PM평가 및 동료평가 결과가 있다.
+3. 직원은 현재 회사에 소속되어 진행한 프로젝트 경력 데이터를 갖고 있다.
+4. 프로젝트 종료 후 평가 내역을 보고 인센티브를 차등 지급을 한다.
+5. 인센티브는 평가내역뿐만 아니라 직급에 따라 차등 지급을 한다.
+6. 인사평가에서는 진행한 프로젝트 수와 프로젝트의 이익과 평가 내역을 참고한다.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. 직원은 같은 프로젝트에 참여하고 있는 직원 정보를 볼 수 있다.
+2. 같은 프로젝트 내의 직원이 아닐 경우 다른 직원의 정보를 볼 수 없다.
+3. 경영진은 모든 프로젝트의 직원의 정보를 볼 수 있다. 
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원, 직군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. 직원은 자신의 아이디와 비밀번호를 입력하여 로그인 할 수 있다.
+2.  로그인 방식은 Ajax기술을 이용하여 페이지의 이동 없이 이루어진다.
+3. 로그인을 성공했을 경우 다음페이지로 전환 또는 상단 로그인 상태를 전환시킨다.
+4. 아이디 or 비밀번호가 일치하지 않으면 경고창이 뜬다.
+5. 입력이 잘못되었을 경우 아이디는 입력창에 유지시키고 비밀번호는 리셋한다.
+ </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. 직원은 자신의 개인정보를 수정할 수 있다.
+2. 직원은 자신의 비밀번호를 수정할 수 있다.
+3. 직원은 자신의 경력을 수정 할 수 있다.
+4. 직원은 자신의 최종학력을 수정할 수 있다.
+5. 직원이 개발자인 경우 자신의 기술 등급을 추가할 수 있다.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. 시스템을 관리하는 admin 아이디가 존재한다.
+2. admin은 직무의 종류를 추가 또는 삭제할 수 있다. 
+3. admin은 Skill set을 추가 또는 삭제할 수 있다. 
+4. admin은 부서의 종류를 추가 또는 삭제할 수 있다. 
+5. admin은 시스템에서의 모든 권한을 부여받는다. 
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URQ015</t>
+  </si>
+  <si>
+    <t>시스템 관리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="돋움"/>
@@ -264,7 +568,15 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="14"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
@@ -277,24 +589,36 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="9"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
       <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -317,7 +641,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -592,21 +916,132 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -616,36 +1051,65 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -655,46 +1119,37 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -790,23 +1245,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -842,23 +1280,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1034,26 +1455,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B7" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.796875" style="31" customWidth="1"/>
-    <col min="2" max="2" width="13.59765625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="85.69921875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.19921875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="25.59765625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.8984375" style="2"/>
+    <col min="1" max="1" width="7.796875" style="32" customWidth="1"/>
+    <col min="2" max="2" width="13.59765625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="85.69921875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="7.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.59765625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.8984375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
@@ -1061,259 +1482,337 @@
       <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27"/>
-    </row>
-    <row r="3" spans="1:5" s="3" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" s="8" customFormat="1" ht="22.2" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="4" customFormat="1" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="12" customFormat="1" ht="75.599999999999994" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="12" customFormat="1" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="16" customFormat="1" ht="75.599999999999994" x14ac:dyDescent="0.25">
+      <c r="A6" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C6" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="16" customFormat="1" ht="108" x14ac:dyDescent="0.25">
+      <c r="A7" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="16" customFormat="1" ht="54" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="16" customFormat="1" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="16" customFormat="1" ht="194.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="16" customFormat="1" ht="75.599999999999994" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" spans="1:5" s="12" customFormat="1" ht="75.599999999999994" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="12" customFormat="1" ht="129.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="12" customFormat="1" ht="54" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="205.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
-    </row>
-    <row r="5" spans="1:5" s="4" customFormat="1" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="14"/>
-    </row>
-    <row r="6" spans="1:5" s="5" customFormat="1" ht="97.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="14"/>
-    </row>
-    <row r="7" spans="1:5" s="5" customFormat="1" ht="97.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="14"/>
-    </row>
-    <row r="8" spans="1:5" s="5" customFormat="1" ht="97.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="14"/>
-    </row>
-    <row r="9" spans="1:5" s="5" customFormat="1" ht="177" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="14"/>
-    </row>
-    <row r="10" spans="1:5" s="5" customFormat="1" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="23" t="s">
+      <c r="C17" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="14"/>
-    </row>
-    <row r="11" spans="1:5" s="5" customFormat="1" ht="117.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="14"/>
-    </row>
-    <row r="12" spans="1:5" s="4" customFormat="1" ht="142.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="14"/>
-    </row>
-    <row r="13" spans="1:5" s="4" customFormat="1" ht="110.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="23" t="s">
+      <c r="E17" s="15"/>
+    </row>
+    <row r="18" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="14"/>
-    </row>
-    <row r="14" spans="1:5" s="4" customFormat="1" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="14"/>
-    </row>
-    <row r="15" spans="1:5" ht="219" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="14"/>
-    </row>
-    <row r="16" spans="1:5" ht="154.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="14"/>
-    </row>
-    <row r="17" spans="1:5" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="14"/>
-    </row>
-    <row r="18" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="14"/>
-    </row>
-    <row r="19" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="15"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="16"/>
-    </row>
-    <row r="20" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="16"/>
-    </row>
-    <row r="21" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="16"/>
-    </row>
-    <row r="22" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="16"/>
-    </row>
-    <row r="23" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="16"/>
-    </row>
-    <row r="24" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="16"/>
-    </row>
-    <row r="25" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="29"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="18"/>
-    </row>
-    <row r="26" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="30"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="21"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="21"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="22"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="21"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="22"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="21"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="21"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="22"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="21"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="22"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="21"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="23"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="26"/>
+    </row>
+    <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="27"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D26" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D26">
       <formula1>"정책,기술,기능,시스템,컨텐츠,디자인,공통"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1322,5 +1821,6 @@
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;N페이지 중 &amp;P페이지</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>